--- a/Projekt/Oceny.xlsx
+++ b/Projekt/Oceny.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B5456-1271-41AD-95F7-7624E9BA9602}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB80CE8-2A77-4620-870F-39DA0C9380B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -430,23 +430,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -475,7 +475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>1</v>
       </c>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>3</v>
       </c>
@@ -571,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>4</v>
       </c>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>5</v>
       </c>
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>6</v>
       </c>
@@ -668,7 +668,7 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>7</v>
       </c>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>8</v>
       </c>
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>9</v>
       </c>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>10</v>
       </c>
@@ -796,7 +796,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>11</v>
       </c>
@@ -828,7 +828,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>12</v>
       </c>
@@ -860,7 +860,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>13</v>
       </c>
@@ -892,7 +892,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>14</v>
       </c>
@@ -924,7 +924,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>15</v>
       </c>
@@ -956,7 +956,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>16</v>
       </c>
@@ -988,7 +988,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>17</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>18</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>19</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>20</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>21</v>
       </c>
@@ -1144,11 +1144,10 @@
         <v>17</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>22</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>23</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>24</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>25</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>26</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>27</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>28</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>29</v>
       </c>
